--- a/Poblacion_Asia_2025.xlsx
+++ b/Poblacion_Asia_2025.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A119A86-2C28-4CFB-9126-D00B60AEF0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBE9E06-CFEE-468A-B11E-399BD6843C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paises de Asia" sheetId="2" r:id="rId1"/>
-    <sheet name="Grafica Tasa de crecimiento" sheetId="3" r:id="rId2"/>
-    <sheet name="Historia de la población de Asi" sheetId="4" r:id="rId3"/>
-    <sheet name="Grafica Historia" sheetId="6" r:id="rId4"/>
+    <sheet name="PaisesdeAsia" sheetId="2" r:id="rId1"/>
+    <sheet name="GraficaTasadecrecimiento" sheetId="3" r:id="rId2"/>
+    <sheet name="Historiadelapoblación de Asi" sheetId="4" r:id="rId3"/>
+    <sheet name="GraficaHistoria" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1295,7 +1295,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historia de la población de Asi'!$A$76</c:f>
+              <c:f>'Historiadelapoblación de Asi'!$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1318,7 +1318,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Historia de la población de Asi'!$A$2:$A$76</c:f>
+              <c:f>'Historiadelapoblación de Asi'!$A$2:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1552,7 +1552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historia de la población de Asi'!$A$2:$A$76</c:f>
+              <c:f>'Historiadelapoblación de Asi'!$A$2:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1796,7 +1796,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historia de la población de Asi'!$B$1</c:f>
+              <c:f>'Historiadelapoblación de Asi'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1819,7 +1819,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Historia de la población de Asi'!$B$2:$B$76</c:f>
+              <c:f>'Historiadelapoblación de Asi'!$B$2:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -6393,7 +6393,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7278,14 +7278,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF33ADF-D4F2-47BA-823E-EF6B9327724A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8150,8 +8151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C8929F-6ACB-4955-9F1A-BC6A8C8ADC5C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Poblacion_Asia_2025.xlsx
+++ b/Poblacion_Asia_2025.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBE9E06-CFEE-468A-B11E-399BD6843C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA4340-4624-4070-A3B3-9B16DAE58B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PaisesdeAsia" sheetId="2" r:id="rId1"/>
     <sheet name="GraficaTasadecrecimiento" sheetId="3" r:id="rId2"/>
-    <sheet name="Historiadelapoblación de Asi" sheetId="4" r:id="rId3"/>
+    <sheet name="HistoriadelapoblacióndeAsi" sheetId="4" r:id="rId3"/>
     <sheet name="GraficaHistoria" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -1295,7 +1295,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historiadelapoblación de Asi'!$A$76</c:f>
+              <c:f>HistoriadelapoblacióndeAsi!$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1318,7 +1318,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Historiadelapoblación de Asi'!$A$2:$A$76</c:f>
+              <c:f>HistoriadelapoblacióndeAsi!$A$2:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1552,7 +1552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historiadelapoblación de Asi'!$A$2:$A$76</c:f>
+              <c:f>HistoriadelapoblacióndeAsi!$A$2:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1796,7 +1796,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historiadelapoblación de Asi'!$B$1</c:f>
+              <c:f>HistoriadelapoblacióndeAsi!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1819,7 +1819,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Historiadelapoblación de Asi'!$B$2:$B$76</c:f>
+              <c:f>HistoriadelapoblacióndeAsi!$B$2:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -6392,7 +6392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D629B7B2-4D90-4077-BA59-6F2C4F81A516}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -7294,8 +7294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58EBD0A-70B0-4175-9874-7124E5E7BF36}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8151,7 +8151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C8929F-6ACB-4955-9F1A-BC6A8C8ADC5C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>

--- a/Poblacion_Asia_2025.xlsx
+++ b/Poblacion_Asia_2025.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA4340-4624-4070-A3B3-9B16DAE58B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BD17FE-43C9-4EE8-86D8-A275D4733247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PaisesdeAsia" sheetId="2" r:id="rId1"/>
     <sheet name="GraficaTasadecrecimiento" sheetId="3" r:id="rId2"/>
-    <sheet name="HistoriadelapoblacióndeAsi" sheetId="4" r:id="rId3"/>
+    <sheet name="Historia" sheetId="4" r:id="rId3"/>
     <sheet name="GraficaHistoria" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -1295,7 +1295,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HistoriadelapoblacióndeAsi!$A$76</c:f>
+              <c:f>Historia!$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1318,7 +1318,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>HistoriadelapoblacióndeAsi!$A$2:$A$76</c:f>
+              <c:f>Historia!$A$2:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1552,7 +1552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HistoriadelapoblacióndeAsi!$A$2:$A$76</c:f>
+              <c:f>Historia!$A$2:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1796,7 +1796,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HistoriadelapoblacióndeAsi!$B$1</c:f>
+              <c:f>Historia!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1819,7 +1819,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>HistoriadelapoblacióndeAsi!$B$2:$B$76</c:f>
+              <c:f>Historia!$B$2:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -7295,7 +7295,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Poblacion_Asia_2025.xlsx
+++ b/Poblacion_Asia_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josim\OneDrive\Escritorio\uniremington\semestres 8\Analisis de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56CA99E-38FB-498F-8378-1839101EE233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9640E7AB-7114-4A73-9858-A898E4C1C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PaisesdeAsia" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="284">
   <si>
     <t>Afganistán</t>
   </si>
@@ -872,13 +872,16 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Historia de la población de Asia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,6 +933,14 @@
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Fjalla One"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1060,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1139,6 +1150,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1238,7 +1255,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Historia!$A$76</c:f>
+              <c:f>Historia!$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1261,7 +1278,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Historia!$A$2:$A$76</c:f>
+              <c:f>Historia!$A$4:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1495,7 +1512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Historia!$A$2:$A$76</c:f>
+              <c:f>Historia!$A$4:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1739,7 +1756,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Historia!$B$1</c:f>
+              <c:f>Historia!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1762,7 +1779,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Historia!$B$2:$B$76</c:f>
+              <c:f>Historia!$B$4:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -3219,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D629B7B2-4D90-4077-BA59-6F2C4F81A516}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C55" sqref="A55:C55"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3911,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58EBD0A-70B0-4175-9874-7124E5E7BF36}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3926,352 +3943,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1951</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
-        <v>1952</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>200</v>
@@ -4279,21 +4286,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>200</v>
@@ -4301,467 +4308,492 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="18">
-        <v>2023</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>278</v>
+      <c r="A74" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
+        <v>2023</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
         <v>2024</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="21">
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="21">
         <v>2025</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B78" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C78" s="23" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
